--- a/PTC_Calculations.xlsx
+++ b/PTC_Calculations.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzube\Documents\05_Programming\Filament_Box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E78745-8BDC-4BC0-B19C-01593780E9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040287D3-7B50-42C2-9654-CC253A6996D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21000" xr2:uid="{FCE6865E-5012-4D96-9345-4A492766F23C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$E$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$F$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$G$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$I$37:$I$67</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$J$37:$J$67</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$K$37:$K$67</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -121,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="173" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -178,13 +170,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -6721,8 +6713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE496AF-B84E-44BD-A07A-BE1863BF6720}">
   <dimension ref="A2:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N129" sqref="N129"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6761,9 +6753,20 @@
       <c r="C5" s="4">
         <v>298.14999999999998</v>
       </c>
+      <c r="I5">
+        <v>1.65</v>
+      </c>
+      <c r="K5">
+        <f>100000*I5/(3.3-I5)</f>
+        <v>100000</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
+      <c r="K6">
+        <f>4261/(LN( K5/(100000*EXP(-4261/298.15))))-273.15</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -6925,11 +6928,11 @@
         <v>3.2081869893795192</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ref="I18:K30" si="4">ROUND((E18*$J$14),0)</f>
+        <f t="shared" ref="I18:K19" si="4">ROUND((E18*$J$14),0)</f>
         <v>1060</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18:J30" si="5">ROUND((F18*$J$14),0)</f>
+        <f t="shared" ref="J18:J19" si="5">ROUND((F18*$J$14),0)</f>
         <v>3184</v>
       </c>
       <c r="K18" s="5">

--- a/PTC_Calculations.xlsx
+++ b/PTC_Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzube\Documents\05_Programming\Filament_Box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040287D3-7B50-42C2-9654-CC253A6996D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220EA124-450B-4E2B-AA77-F51F1EA7890B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21000" xr2:uid="{FCE6865E-5012-4D96-9345-4A492766F23C}"/>
   </bookViews>
@@ -6714,7 +6714,7 @@
   <dimension ref="A2:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
